--- a/file-replace-key-value/config/column-key-value.xlsx
+++ b/file-replace-key-value/config/column-key-value.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Workspace\LinlanProjects\github\py-tools-fileop\file-replace-key-value\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{791B6EF5-EB95-418C-AB42-F6CC8B0B65B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D51616BA-819E-4D28-9A9C-70C7F6E1DE6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3920" yWindow="800" windowWidth="24140" windowHeight="16890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="29020" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="column" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">column!$A$2:$G$348</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="697">
   <si>
     <t>BEGIN_TIME</t>
   </si>
@@ -156,54 +159,27 @@
     <t>COL_KEY</t>
   </si>
   <si>
-    <t>TYPE</t>
-  </si>
-  <si>
     <t>CODE</t>
   </si>
   <si>
     <t>ADDRESS</t>
   </si>
   <si>
-    <t>DOCTYPE</t>
-  </si>
-  <si>
-    <t>TIME</t>
-  </si>
-  <si>
     <t>SOURCE</t>
   </si>
   <si>
     <t>CONTENT</t>
   </si>
   <si>
-    <t>SPARE1</t>
-  </si>
-  <si>
-    <t>SPARE2</t>
-  </si>
-  <si>
-    <t>DATETIME</t>
-  </si>
-  <si>
-    <t>TIMESTAMP</t>
-  </si>
-  <si>
     <t>F5001</t>
   </si>
   <si>
     <t>F5002</t>
   </si>
   <si>
-    <t>F5003</t>
-  </si>
-  <si>
     <t>F5004</t>
   </si>
   <si>
-    <t>F5005</t>
-  </si>
-  <si>
     <t>F5006</t>
   </si>
   <si>
@@ -219,12 +195,6 @@
     <t>F5010</t>
   </si>
   <si>
-    <t>F5011</t>
-  </si>
-  <si>
-    <t>F5012</t>
-  </si>
-  <si>
     <t>F5013</t>
   </si>
   <si>
@@ -237,9 +207,6 @@
     <t>F5017</t>
   </si>
   <si>
-    <t>DOCF5003</t>
-  </si>
-  <si>
     <t>F1611</t>
   </si>
   <si>
@@ -306,12 +273,6 @@
     <t>F1633</t>
   </si>
   <si>
-    <t>DUTY</t>
-  </si>
-  <si>
-    <t>F1634</t>
-  </si>
-  <si>
     <t>F1635</t>
   </si>
   <si>
@@ -336,16 +297,1828 @@
     <t>F1642</t>
   </si>
   <si>
-    <t>CREATOR</t>
-  </si>
-  <si>
-    <t>F5018</t>
-  </si>
-  <si>
-    <t>DATEF5018</t>
-  </si>
-  <si>
-    <t>F5018STAMP</t>
+    <t>APPROVAL_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1121</t>
+  </si>
+  <si>
+    <t>APPROVAL_USER_ID</t>
+  </si>
+  <si>
+    <t>F1122</t>
+  </si>
+  <si>
+    <t>SOURCE_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1123</t>
+  </si>
+  <si>
+    <t>COMMUNITY_CODE</t>
+  </si>
+  <si>
+    <t>F1124</t>
+  </si>
+  <si>
+    <t>CURR_DEAL_TIME</t>
+  </si>
+  <si>
+    <t>F1125</t>
+  </si>
+  <si>
+    <t>MAIN_USER_NAME</t>
+  </si>
+  <si>
+    <t>F1126</t>
+  </si>
+  <si>
+    <t>MAN_ORGAN_NAME</t>
+  </si>
+  <si>
+    <t>F1127</t>
+  </si>
+  <si>
+    <t>OCCUR_GRID_ID</t>
+  </si>
+  <si>
+    <t>F1128</t>
+  </si>
+  <si>
+    <t>DISCOVER_TIME</t>
+  </si>
+  <si>
+    <t>F1129</t>
+  </si>
+  <si>
+    <t>CONN_EVENT_ID</t>
+  </si>
+  <si>
+    <t>F1131</t>
+  </si>
+  <si>
+    <t>REPORT_OUT_ID</t>
+  </si>
+  <si>
+    <t>F1132</t>
+  </si>
+  <si>
+    <t>CHECK_CONTENT</t>
+  </si>
+  <si>
+    <t>F1133</t>
+  </si>
+  <si>
+    <t>ABSTRACT_INFO</t>
+  </si>
+  <si>
+    <t>F1134</t>
+  </si>
+  <si>
+    <t>APPROVAL_TIME</t>
+  </si>
+  <si>
+    <t>F1135</t>
+  </si>
+  <si>
+    <t>CURR_USER_ID</t>
+  </si>
+  <si>
+    <t>F1136</t>
+  </si>
+  <si>
+    <t>PROMISS_TIME</t>
+  </si>
+  <si>
+    <t>F1137</t>
+  </si>
+  <si>
+    <t>DANGER_LEVEL</t>
+  </si>
+  <si>
+    <t>F1138</t>
+  </si>
+  <si>
+    <t>PUBLISH_DATE</t>
+  </si>
+  <si>
+    <t>F1139</t>
+  </si>
+  <si>
+    <t>MAIN_USER_ID</t>
+  </si>
+  <si>
+    <t>F1140</t>
+  </si>
+  <si>
+    <t>REPORT_L_ID</t>
+  </si>
+  <si>
+    <t>F1142</t>
+  </si>
+  <si>
+    <t>IS_TEAMWORK</t>
+  </si>
+  <si>
+    <t>F1143</t>
+  </si>
+  <si>
+    <t>FB_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1144</t>
+  </si>
+  <si>
+    <t>LEADER_NAME</t>
+  </si>
+  <si>
+    <t>F1145</t>
+  </si>
+  <si>
+    <t>PEOPLE_TYPE</t>
+  </si>
+  <si>
+    <t>F1146</t>
+  </si>
+  <si>
+    <t>HOUSE_CODE</t>
+  </si>
+  <si>
+    <t>F1147</t>
+  </si>
+  <si>
+    <t>FB_USER_ID</t>
+  </si>
+  <si>
+    <t>F1148</t>
+  </si>
+  <si>
+    <t>FB_CONTENT</t>
+  </si>
+  <si>
+    <t>F1149</t>
+  </si>
+  <si>
+    <t>DOWN_COUNT</t>
+  </si>
+  <si>
+    <t>F1150</t>
+  </si>
+  <si>
+    <t>HOUSE_TYPE</t>
+  </si>
+  <si>
+    <t>F1151</t>
+  </si>
+  <si>
+    <t>ORGAN_TYPE</t>
+  </si>
+  <si>
+    <t>F1153</t>
+  </si>
+  <si>
+    <t>WORKER_NUM</t>
+  </si>
+  <si>
+    <t>F1154</t>
+  </si>
+  <si>
+    <t>OP_CONTENT</t>
+  </si>
+  <si>
+    <t>F1155</t>
+  </si>
+  <si>
+    <t>PLACE_TYPE</t>
+  </si>
+  <si>
+    <t>F1156</t>
+  </si>
+  <si>
+    <t>CRIME_INFO</t>
+  </si>
+  <si>
+    <t>F1157</t>
+  </si>
+  <si>
+    <t>HOLDER_TEL</t>
+  </si>
+  <si>
+    <t>F1158</t>
+  </si>
+  <si>
+    <t>SCORE_FACT</t>
+  </si>
+  <si>
+    <t>F1159</t>
+  </si>
+  <si>
+    <t>HAS_SETUP</t>
+  </si>
+  <si>
+    <t>F1160</t>
+  </si>
+  <si>
+    <t>SHOW_NAME</t>
+  </si>
+  <si>
+    <t>F1161</t>
+  </si>
+  <si>
+    <t>FLOOR_NUM</t>
+  </si>
+  <si>
+    <t>F1162</t>
+  </si>
+  <si>
+    <t>DUTY_TYPE</t>
+  </si>
+  <si>
+    <t>F1164</t>
+  </si>
+  <si>
+    <t>STAT_UNIT</t>
+  </si>
+  <si>
+    <t>F1165</t>
+  </si>
+  <si>
+    <t>STAT_TYPE</t>
+  </si>
+  <si>
+    <t>F1166</t>
+  </si>
+  <si>
+    <t>TIME_INFO</t>
+  </si>
+  <si>
+    <t>F1167</t>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+  </si>
+  <si>
+    <t>F1168</t>
+  </si>
+  <si>
+    <t>HOLDER_NO</t>
+  </si>
+  <si>
+    <t>F1169</t>
+  </si>
+  <si>
+    <t>EVA_TIME</t>
+  </si>
+  <si>
+    <t>F1170</t>
+  </si>
+  <si>
+    <t>EVA_MODE</t>
+  </si>
+  <si>
+    <t>F1171</t>
+  </si>
+  <si>
+    <t>HOUSE_NO</t>
+  </si>
+  <si>
+    <t>F1172</t>
+  </si>
+  <si>
+    <t>MSG_TYPE</t>
+  </si>
+  <si>
+    <t>F1173</t>
+  </si>
+  <si>
+    <t>BIRTHDAY</t>
+  </si>
+  <si>
+    <t>F1174</t>
+  </si>
+  <si>
+    <t>CATEGORY</t>
+  </si>
+  <si>
+    <t>F1175</t>
+  </si>
+  <si>
+    <t>LEVEL_ID</t>
+  </si>
+  <si>
+    <t>F1176</t>
+  </si>
+  <si>
+    <t>RUN_INFO</t>
+  </si>
+  <si>
+    <t>F1177</t>
+  </si>
+  <si>
+    <t>TOPIC_ID</t>
+  </si>
+  <si>
+    <t>F1178</t>
+  </si>
+  <si>
+    <t>CITY_ID</t>
+  </si>
+  <si>
+    <t>F1179</t>
+  </si>
+  <si>
+    <t>UNIT_ID</t>
+  </si>
+  <si>
+    <t>F1180</t>
+  </si>
+  <si>
+    <t>FB_TIME</t>
+  </si>
+  <si>
+    <t>F1181</t>
+  </si>
+  <si>
+    <t>TEL_EXT</t>
+  </si>
+  <si>
+    <t>F1182</t>
+  </si>
+  <si>
+    <t>MEANING</t>
+  </si>
+  <si>
+    <t>F1183</t>
+  </si>
+  <si>
+    <t>TASK_ID</t>
+  </si>
+  <si>
+    <t>F1184</t>
+  </si>
+  <si>
+    <t>IMAGE_PATH</t>
+  </si>
+  <si>
+    <t>F1185</t>
+  </si>
+  <si>
+    <t>PATH</t>
+  </si>
+  <si>
+    <t>F1186</t>
+  </si>
+  <si>
+    <t>SUBDISTRICT_CODE</t>
+  </si>
+  <si>
+    <t>F1188</t>
+  </si>
+  <si>
+    <t>DUTY_DEPTTYPE_ID</t>
+  </si>
+  <si>
+    <t>F1189</t>
+  </si>
+  <si>
+    <t>APPROVE_USER_ID</t>
+  </si>
+  <si>
+    <t>F1190</t>
+  </si>
+  <si>
+    <t>ASSIGN_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1191</t>
+  </si>
+  <si>
+    <t>MAIN_ORGAN_NAME</t>
+  </si>
+  <si>
+    <t>F1192</t>
+  </si>
+  <si>
+    <t>APPLY_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1193</t>
+  </si>
+  <si>
+    <t>APPROVE_RESULT</t>
+  </si>
+  <si>
+    <t>F1194</t>
+  </si>
+  <si>
+    <t>ASSIGN_USER_ID</t>
+  </si>
+  <si>
+    <t>F1195</t>
+  </si>
+  <si>
+    <t>SUB_ORGAN_NAME</t>
+  </si>
+  <si>
+    <t>F1197</t>
+  </si>
+  <si>
+    <t>PRESSED_TIMES</t>
+  </si>
+  <si>
+    <t>F1198</t>
+  </si>
+  <si>
+    <t>IS_HIGH_GRADE</t>
+  </si>
+  <si>
+    <t>F1199</t>
+  </si>
+  <si>
+    <t>CHECK_USER_ID</t>
+  </si>
+  <si>
+    <t>F1200</t>
+  </si>
+  <si>
+    <t>CONN_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1201</t>
+  </si>
+  <si>
+    <t>MAIN_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1202</t>
+  </si>
+  <si>
+    <t>SCORE_EXPLAIN</t>
+  </si>
+  <si>
+    <t>F1203</t>
+  </si>
+  <si>
+    <t>EVENT_SYMBOL</t>
+  </si>
+  <si>
+    <t>F1204</t>
+  </si>
+  <si>
+    <t>IS_IMPORTANT</t>
+  </si>
+  <si>
+    <t>F1205</t>
+  </si>
+  <si>
+    <t>FOREIGN_NAME</t>
+  </si>
+  <si>
+    <t>F1207</t>
+  </si>
+  <si>
+    <t>MAN_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1208</t>
+  </si>
+  <si>
+    <t>CREATOR_NAME</t>
+  </si>
+  <si>
+    <t>F1209</t>
+  </si>
+  <si>
+    <t>SUB_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1210</t>
+  </si>
+  <si>
+    <t>TRIGGER_NAME</t>
+  </si>
+  <si>
+    <t>F1211</t>
+  </si>
+  <si>
+    <t>HAS_TASK_REP</t>
+  </si>
+  <si>
+    <t>F1213</t>
+  </si>
+  <si>
+    <t>ASSIGN_INFO</t>
+  </si>
+  <si>
+    <t>F1214</t>
+  </si>
+  <si>
+    <t>EVENT_CLASS</t>
+  </si>
+  <si>
+    <t>F1215</t>
+  </si>
+  <si>
+    <t>CONTACT_TEL</t>
+  </si>
+  <si>
+    <t>F1216</t>
+  </si>
+  <si>
+    <t>SINDEX_NAME</t>
+  </si>
+  <si>
+    <t>F1218</t>
+  </si>
+  <si>
+    <t>HAS_FINISH</t>
+  </si>
+  <si>
+    <t>F1229</t>
+  </si>
+  <si>
+    <t>SETUP_TIME</t>
+  </si>
+  <si>
+    <t>F1230</t>
+  </si>
+  <si>
+    <t>MARK_LEVEL</t>
+  </si>
+  <si>
+    <t>F1231</t>
+  </si>
+  <si>
+    <t>ARGUE_INFO</t>
+  </si>
+  <si>
+    <t>F1232</t>
+  </si>
+  <si>
+    <t>RESTYPE_ID</t>
+  </si>
+  <si>
+    <t>F1233</t>
+  </si>
+  <si>
+    <t>STYPE_ID</t>
+  </si>
+  <si>
+    <t>F1234</t>
+  </si>
+  <si>
+    <t>START_TIME</t>
+  </si>
+  <si>
+    <t>F1235</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>F1236</t>
+  </si>
+  <si>
+    <t>PROJECT_ID</t>
+  </si>
+  <si>
+    <t>F1237</t>
+  </si>
+  <si>
+    <t>ORGAN_CODE</t>
+  </si>
+  <si>
+    <t>F1238</t>
+  </si>
+  <si>
+    <t>ORGTYPE_ID</t>
+  </si>
+  <si>
+    <t>F1239</t>
+  </si>
+  <si>
+    <t>IS_MEMBER</t>
+  </si>
+  <si>
+    <t>F1258</t>
+  </si>
+  <si>
+    <t>CITY_NAME</t>
+  </si>
+  <si>
+    <t>F1259</t>
+  </si>
+  <si>
+    <t>SEND_TYPE</t>
+  </si>
+  <si>
+    <t>F1260</t>
+  </si>
+  <si>
+    <t>IS_HIDDEN</t>
+  </si>
+  <si>
+    <t>F1261</t>
+  </si>
+  <si>
+    <t>ITEM_CODE</t>
+  </si>
+  <si>
+    <t>F1262</t>
+  </si>
+  <si>
+    <t>IS_DANGER</t>
+  </si>
+  <si>
+    <t>F1263</t>
+  </si>
+  <si>
+    <t>SUP_TIMES</t>
+  </si>
+  <si>
+    <t>F1264</t>
+  </si>
+  <si>
+    <t>MATTER_ID</t>
+  </si>
+  <si>
+    <t>F1265</t>
+  </si>
+  <si>
+    <t>CLIENT_ID</t>
+  </si>
+  <si>
+    <t>F1266</t>
+  </si>
+  <si>
+    <t>FULL_CODE</t>
+  </si>
+  <si>
+    <t>F1267</t>
+  </si>
+  <si>
+    <t>FLOW_TYPE</t>
+  </si>
+  <si>
+    <t>F1268</t>
+  </si>
+  <si>
+    <t>CURR_NAME</t>
+  </si>
+  <si>
+    <t>F1269</t>
+  </si>
+  <si>
+    <t>NEXT_NAME</t>
+  </si>
+  <si>
+    <t>F1270</t>
+  </si>
+  <si>
+    <t>SEND_TIME</t>
+  </si>
+  <si>
+    <t>F1271</t>
+  </si>
+  <si>
+    <t>PLACE_ID</t>
+  </si>
+  <si>
+    <t>F1280</t>
+  </si>
+  <si>
+    <t>COMPS_ID</t>
+  </si>
+  <si>
+    <t>F1281</t>
+  </si>
+  <si>
+    <t>IS_SIGN</t>
+  </si>
+  <si>
+    <t>F1282</t>
+  </si>
+  <si>
+    <t>FLOW_ID</t>
+  </si>
+  <si>
+    <t>F1283</t>
+  </si>
+  <si>
+    <t>STAT_ID</t>
+  </si>
+  <si>
+    <t>F1285</t>
+  </si>
+  <si>
+    <t>DUTY_AREATYPE_ID</t>
+  </si>
+  <si>
+    <t>F1286</t>
+  </si>
+  <si>
+    <t>IS_LEADER_ASSIGN</t>
+  </si>
+  <si>
+    <t>F1287</t>
+  </si>
+  <si>
+    <t>NEXT_ORGAN_NAME</t>
+  </si>
+  <si>
+    <t>F1289</t>
+  </si>
+  <si>
+    <t>DUTY_AREA_NAME</t>
+  </si>
+  <si>
+    <t>F1291</t>
+  </si>
+  <si>
+    <t>NEXT_USER_NAME</t>
+  </si>
+  <si>
+    <t>F1292</t>
+  </si>
+  <si>
+    <t>ATTENTION_FLAG</t>
+  </si>
+  <si>
+    <t>F1293</t>
+  </si>
+  <si>
+    <t>DISTRICT_CODE</t>
+  </si>
+  <si>
+    <t>F1294</t>
+  </si>
+  <si>
+    <t>CURR_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1295</t>
+  </si>
+  <si>
+    <t>ITEM_PROPERTY</t>
+  </si>
+  <si>
+    <t>F1296</t>
+  </si>
+  <si>
+    <t>TRIGGER_GROUP</t>
+  </si>
+  <si>
+    <t>F1297</t>
+  </si>
+  <si>
+    <t>DUTY_GRID_ID</t>
+  </si>
+  <si>
+    <t>F1298</t>
+  </si>
+  <si>
+    <t>LEGAL_PERSON</t>
+  </si>
+  <si>
+    <t>F1299</t>
+  </si>
+  <si>
+    <t>HELP_CONTENT</t>
+  </si>
+  <si>
+    <t>F1300</t>
+  </si>
+  <si>
+    <t>MODELITEM_ID</t>
+  </si>
+  <si>
+    <t>F1301</t>
+  </si>
+  <si>
+    <t>ASSIGN_TIME</t>
+  </si>
+  <si>
+    <t>F1302</t>
+  </si>
+  <si>
+    <t>IS_EMERGENT</t>
+  </si>
+  <si>
+    <t>F1303</t>
+  </si>
+  <si>
+    <t>IS_CALLBACK</t>
+  </si>
+  <si>
+    <t>F1304</t>
+  </si>
+  <si>
+    <t>SCORE_TOTAL</t>
+  </si>
+  <si>
+    <t>F1305</t>
+  </si>
+  <si>
+    <t>CURR_STATE</t>
+  </si>
+  <si>
+    <t>F1306</t>
+  </si>
+  <si>
+    <t>NEXT_STATE</t>
+  </si>
+  <si>
+    <t>F1307</t>
+  </si>
+  <si>
+    <t>PLACE_NAME</t>
+  </si>
+  <si>
+    <t>F1308</t>
+  </si>
+  <si>
+    <t>ITEM_LABEL</t>
+  </si>
+  <si>
+    <t>F1309</t>
+  </si>
+  <si>
+    <t>DONE_TYPE</t>
+  </si>
+  <si>
+    <t>F1310</t>
+  </si>
+  <si>
+    <t>UNIT_NAME</t>
+  </si>
+  <si>
+    <t>F1311</t>
+  </si>
+  <si>
+    <t>OBJECT_ID</t>
+  </si>
+  <si>
+    <t>F1312</t>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+  </si>
+  <si>
+    <t>F1313</t>
+  </si>
+  <si>
+    <t>FAMILY_ID</t>
+  </si>
+  <si>
+    <t>F1314</t>
+  </si>
+  <si>
+    <t>DEPT_ID</t>
+  </si>
+  <si>
+    <t>F1315</t>
+  </si>
+  <si>
+    <t>XZQH_ID</t>
+  </si>
+  <si>
+    <t>F1316</t>
+  </si>
+  <si>
+    <t>PICTURE</t>
+  </si>
+  <si>
+    <t>F1317</t>
+  </si>
+  <si>
+    <t>MSG_ID</t>
+  </si>
+  <si>
+    <t>F1318</t>
+  </si>
+  <si>
+    <t>SEX</t>
+  </si>
+  <si>
+    <t>F1319</t>
+  </si>
+  <si>
+    <t>STAT_BEGIN_TIME</t>
+  </si>
+  <si>
+    <t>F1320</t>
+  </si>
+  <si>
+    <t>REPORT_USER_ID</t>
+  </si>
+  <si>
+    <t>F1321</t>
+  </si>
+  <si>
+    <t>APPLY_USER_ID</t>
+  </si>
+  <si>
+    <t>F1322</t>
+  </si>
+  <si>
+    <t>DEST_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1323</t>
+  </si>
+  <si>
+    <t>SIGN_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1324</t>
+  </si>
+  <si>
+    <t>STAT_END_TIME</t>
+  </si>
+  <si>
+    <t>F1325</t>
+  </si>
+  <si>
+    <t>DATASOURCE_ID</t>
+  </si>
+  <si>
+    <t>F1326</t>
+  </si>
+  <si>
+    <t>NEXT_ORGAN_ID</t>
+  </si>
+  <si>
+    <t>F1327</t>
+  </si>
+  <si>
+    <t>APPROVE_TIME</t>
+  </si>
+  <si>
+    <t>F1328</t>
+  </si>
+  <si>
+    <t>IS_DIFFICULT</t>
+  </si>
+  <si>
+    <t>F1330</t>
+  </si>
+  <si>
+    <t>DONE_CONTENT</t>
+  </si>
+  <si>
+    <t>F1331</t>
+  </si>
+  <si>
+    <t>NEXT_USER_ID</t>
+  </si>
+  <si>
+    <t>F1332</t>
+  </si>
+  <si>
+    <t>DEPTTYPE_ID</t>
+  </si>
+  <si>
+    <t>F1333</t>
+  </si>
+  <si>
+    <t>REPORT_NAME</t>
+  </si>
+  <si>
+    <t>F1335</t>
+  </si>
+  <si>
+    <t>REPORT_TYPE</t>
+  </si>
+  <si>
+    <t>F1336</t>
+  </si>
+  <si>
+    <t>CURR_STATUS</t>
+  </si>
+  <si>
+    <t>F1337</t>
+  </si>
+  <si>
+    <t>NEXT_STATUS</t>
+  </si>
+  <si>
+    <t>F1338</t>
+  </si>
+  <si>
+    <t>EVENT_TYPE</t>
+  </si>
+  <si>
+    <t>F1339</t>
+  </si>
+  <si>
+    <t>CHECK_TIME</t>
+  </si>
+  <si>
+    <t>F1340</t>
+  </si>
+  <si>
+    <t>UNION_CODE</t>
+  </si>
+  <si>
+    <t>F1341</t>
+  </si>
+  <si>
+    <t>GRID_NAME</t>
+  </si>
+  <si>
+    <t>F1342</t>
+  </si>
+  <si>
+    <t>REG_TIME</t>
+  </si>
+  <si>
+    <t>F1344</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>F1345</t>
+  </si>
+  <si>
+    <t>LIST_ID</t>
+  </si>
+  <si>
+    <t>F1346</t>
+  </si>
+  <si>
+    <t>AUTHOR</t>
+  </si>
+  <si>
+    <t>F1347</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL_NAME</t>
+  </si>
+  <si>
+    <t>F1348</t>
+  </si>
+  <si>
+    <t>DUTY_USER_NAME</t>
+  </si>
+  <si>
+    <t>F1349</t>
+  </si>
+  <si>
+    <t>IS_SUPERVISED</t>
+  </si>
+  <si>
+    <t>F1350</t>
+  </si>
+  <si>
+    <t>SERVER_OBJECT</t>
+  </si>
+  <si>
+    <t>F1352</t>
+  </si>
+  <si>
+    <t>LAST_MESSAGE</t>
+  </si>
+  <si>
+    <t>F1353</t>
+  </si>
+  <si>
+    <t>DIMENSION_ID</t>
+  </si>
+  <si>
+    <t>F1354</t>
+  </si>
+  <si>
+    <t>ALGORITHM_ID</t>
+  </si>
+  <si>
+    <t>F1355</t>
+  </si>
+  <si>
+    <t>CREATE_TYPE</t>
+  </si>
+  <si>
+    <t>F1356</t>
+  </si>
+  <si>
+    <t>ASSIGN_FLAG</t>
+  </si>
+  <si>
+    <t>F1357</t>
+  </si>
+  <si>
+    <t>REPORT_TIME</t>
+  </si>
+  <si>
+    <t>F1358</t>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+  </si>
+  <si>
+    <t>F1359</t>
+  </si>
+  <si>
+    <t>SOURCE_CODE</t>
+  </si>
+  <si>
+    <t>F1360</t>
+  </si>
+  <si>
+    <t>SOURCE_NAME</t>
+  </si>
+  <si>
+    <t>F1361</t>
+  </si>
+  <si>
+    <t>IS_DISPLAY</t>
+  </si>
+  <si>
+    <t>F1362</t>
+  </si>
+  <si>
+    <t>IS_PRESSED</t>
+  </si>
+  <si>
+    <t>F1363</t>
+  </si>
+  <si>
+    <t>LICENCE_ID</t>
+  </si>
+  <si>
+    <t>F1364</t>
+  </si>
+  <si>
+    <t>COUNT_NUM1</t>
+  </si>
+  <si>
+    <t>F1365</t>
+  </si>
+  <si>
+    <t>COUNT_NUM2</t>
+  </si>
+  <si>
+    <t>F1366</t>
+  </si>
+  <si>
+    <t>COUNT_NUM3</t>
+  </si>
+  <si>
+    <t>F1367</t>
+  </si>
+  <si>
+    <t>COUNT_NUM4</t>
+  </si>
+  <si>
+    <t>F1368</t>
+  </si>
+  <si>
+    <t>COVER_IMG</t>
+  </si>
+  <si>
+    <t>F1369</t>
+  </si>
+  <si>
+    <t>DISP_FLAG</t>
+  </si>
+  <si>
+    <t>F1370</t>
+  </si>
+  <si>
+    <t>SINDEX_ID</t>
+  </si>
+  <si>
+    <t>F1371</t>
+  </si>
+  <si>
+    <t>INDEX_ID</t>
+  </si>
+  <si>
+    <t>F1372</t>
+  </si>
+  <si>
+    <t>USERNAME</t>
+  </si>
+  <si>
+    <t>F1373</t>
+  </si>
+  <si>
+    <t>HOUSE_ID</t>
+  </si>
+  <si>
+    <t>F1374</t>
+  </si>
+  <si>
+    <t>MOBILE</t>
+  </si>
+  <si>
+    <t>F1375</t>
+  </si>
+  <si>
+    <t>ID_NUM</t>
+  </si>
+  <si>
+    <t>F1376</t>
+  </si>
+  <si>
+    <t>STD_ADDRESS_ID</t>
+  </si>
+  <si>
+    <t>F1501</t>
+  </si>
+  <si>
+    <t>STD_ADDRESS</t>
+  </si>
+  <si>
+    <t>F1502</t>
+  </si>
+  <si>
+    <t>OUT_SOURCE_URL</t>
+  </si>
+  <si>
+    <t>F1503</t>
+  </si>
+  <si>
+    <t>HOLDER_NAME</t>
+  </si>
+  <si>
+    <t>F1504</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ID</t>
+  </si>
+  <si>
+    <t>F1505</t>
+  </si>
+  <si>
+    <t>PUBLISH_ID</t>
+  </si>
+  <si>
+    <t>F1506</t>
+  </si>
+  <si>
+    <t>SERTYPE_ID</t>
+  </si>
+  <si>
+    <t>F1507</t>
+  </si>
+  <si>
+    <t>DATA_FROM</t>
+  </si>
+  <si>
+    <t>F1508</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>F1509</t>
+  </si>
+  <si>
+    <t>TYPE_NAME</t>
+  </si>
+  <si>
+    <t>F1510</t>
+  </si>
+  <si>
+    <t>CONF_TYPE</t>
+  </si>
+  <si>
+    <t>F1511</t>
+  </si>
+  <si>
+    <t>USER_ID2</t>
+  </si>
+  <si>
+    <t>F1512</t>
+  </si>
+  <si>
+    <t>OUT_SOURCE_ID</t>
+  </si>
+  <si>
+    <t>F1513</t>
+  </si>
+  <si>
+    <t>POSITION_ID</t>
+  </si>
+  <si>
+    <t>F1516</t>
+  </si>
+  <si>
+    <t>BUILDING_ID</t>
+  </si>
+  <si>
+    <t>F1518</t>
+  </si>
+  <si>
+    <t>TASKCONF_ID</t>
+  </si>
+  <si>
+    <t>F1519</t>
+  </si>
+  <si>
+    <t>APPLY_TIME</t>
+  </si>
+  <si>
+    <t>F1520</t>
+  </si>
+  <si>
+    <t>HAS_ATTACH</t>
+  </si>
+  <si>
+    <t>F1521</t>
+  </si>
+  <si>
+    <t>IDENTIFIER</t>
+  </si>
+  <si>
+    <t>F1522</t>
+  </si>
+  <si>
+    <t>SCHED_NAME</t>
+  </si>
+  <si>
+    <t>F1523</t>
+  </si>
+  <si>
+    <t>ITEM_NAME</t>
+  </si>
+  <si>
+    <t>F1524</t>
+  </si>
+  <si>
+    <t>SIGN_TIME</t>
+  </si>
+  <si>
+    <t>F1525</t>
+  </si>
+  <si>
+    <t>CHECK_ID</t>
+  </si>
+  <si>
+    <t>F1526</t>
+  </si>
+  <si>
+    <t>INFO_ID</t>
+  </si>
+  <si>
+    <t>F1527</t>
+  </si>
+  <si>
+    <t>IS_DEF</t>
+  </si>
+  <si>
+    <t>F1528</t>
+  </si>
+  <si>
+    <t>WEEK</t>
+  </si>
+  <si>
+    <t>F1529</t>
+  </si>
+  <si>
+    <t>DUTY_DISTRICT_ID</t>
+  </si>
+  <si>
+    <t>F1530</t>
+  </si>
+  <si>
+    <t>COMMUNITY_NAME</t>
+  </si>
+  <si>
+    <t>F1531</t>
+  </si>
+  <si>
+    <t>IS_RECOMMEND</t>
+  </si>
+  <si>
+    <t>F1532</t>
+  </si>
+  <si>
+    <t>TPL_CONTENT</t>
+  </si>
+  <si>
+    <t>F1533</t>
+  </si>
+  <si>
+    <t>ADDRESS_ID</t>
+  </si>
+  <si>
+    <t>F1534</t>
+  </si>
+  <si>
+    <t>OCCUR_TIME</t>
+  </si>
+  <si>
+    <t>F1535</t>
+  </si>
+  <si>
+    <t>LONGITUDE</t>
+  </si>
+  <si>
+    <t>F1536</t>
+  </si>
+  <si>
+    <t>ATTR_TIME</t>
+  </si>
+  <si>
+    <t>F1537</t>
+  </si>
+  <si>
+    <t>BIZ_TYPE</t>
+  </si>
+  <si>
+    <t>F1538</t>
+  </si>
+  <si>
+    <t>LATITUDE</t>
+  </si>
+  <si>
+    <t>F1539</t>
+  </si>
+  <si>
+    <t>ATTITUDE</t>
+  </si>
+  <si>
+    <t>F1540</t>
+  </si>
+  <si>
+    <t>CONF_ID</t>
+  </si>
+  <si>
+    <t>F1541</t>
+  </si>
+  <si>
+    <t>ITEM_ID</t>
+  </si>
+  <si>
+    <t>F1542</t>
+  </si>
+  <si>
+    <t>ATTENTION_CONTENT</t>
+  </si>
+  <si>
+    <t>F1543</t>
+  </si>
+  <si>
+    <t>SUBDISTRICT_NAME</t>
+  </si>
+  <si>
+    <t>F1544</t>
+  </si>
+  <si>
+    <t>DICTIONARY_BAK1</t>
+  </si>
+  <si>
+    <t>F1545</t>
+  </si>
+  <si>
+    <t>DICTIONARY_BAK2</t>
+  </si>
+  <si>
+    <t>F1546</t>
+  </si>
+  <si>
+    <t>OP_ORGAN_NAME</t>
+  </si>
+  <si>
+    <t>F1547</t>
+  </si>
+  <si>
+    <t>COUNT_ONRATE</t>
+  </si>
+  <si>
+    <t>F1548</t>
+  </si>
+  <si>
+    <t>CONTACT_NAME</t>
+  </si>
+  <si>
+    <t>F1549</t>
+  </si>
+  <si>
+    <t>COUNT_RATE</t>
+  </si>
+  <si>
+    <t>F1550</t>
+  </si>
+  <si>
+    <t>OVERALL_ID</t>
+  </si>
+  <si>
+    <t>F1551</t>
+  </si>
+  <si>
+    <t>DONE_TIME</t>
+  </si>
+  <si>
+    <t>F1552</t>
+  </si>
+  <si>
+    <t>FIELDNAME</t>
+  </si>
+  <si>
+    <t>F1553</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>F1554</t>
+  </si>
+  <si>
+    <t>RESIDENTIAL_ID</t>
+  </si>
+  <si>
+    <t>F1555</t>
+  </si>
+  <si>
+    <t>DISTRICT_NAME</t>
+  </si>
+  <si>
+    <t>F1556</t>
+  </si>
+  <si>
+    <t>DUE_TIME</t>
+  </si>
+  <si>
+    <t>F1557</t>
+  </si>
+  <si>
+    <t>ATTR_KEY</t>
+  </si>
+  <si>
+    <t>F1558</t>
+  </si>
+  <si>
+    <t>RULE_ID</t>
+  </si>
+  <si>
+    <t>F1559</t>
+  </si>
+  <si>
+    <t>VIEW_NAME</t>
+  </si>
+  <si>
+    <t>F1560</t>
+  </si>
+  <si>
+    <t>GRID_ID</t>
+  </si>
+  <si>
+    <t>F1561</t>
+  </si>
+  <si>
+    <t>ATTR_NAME</t>
+  </si>
+  <si>
+    <t>F1562</t>
+  </si>
+  <si>
+    <t>ADMIN_ID</t>
+  </si>
+  <si>
+    <t>F1563</t>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+  </si>
+  <si>
+    <t>F1564</t>
+  </si>
+  <si>
+    <t>ATTR_VALUE</t>
+  </si>
+  <si>
+    <t>F1566</t>
+  </si>
+  <si>
+    <t>SCHEME_ID</t>
+  </si>
+  <si>
+    <t>F1567</t>
+  </si>
+  <si>
+    <t>SCORE</t>
+  </si>
+  <si>
+    <t>F1568</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>F1569</t>
+  </si>
+  <si>
+    <t>DATA_BATCH</t>
+  </si>
+  <si>
+    <t>F1570</t>
+  </si>
+  <si>
+    <t>CHANNEL_ID</t>
+  </si>
+  <si>
+    <t>F1571</t>
+  </si>
+  <si>
+    <t>COMMUNITY_ID</t>
+  </si>
+  <si>
+    <t>F1574</t>
+  </si>
+  <si>
+    <t>DATA_VERSION</t>
+  </si>
+  <si>
+    <t>F1575</t>
+  </si>
+  <si>
+    <t>DONE_STATUS</t>
+  </si>
+  <si>
+    <t>F1577</t>
+  </si>
+  <si>
+    <t>OP_L_ID</t>
+  </si>
+  <si>
+    <t>F1578</t>
+  </si>
+  <si>
+    <t>REPORT_SOURCE</t>
+  </si>
+  <si>
+    <t>F1579</t>
+  </si>
+  <si>
+    <t>OP_USER_NAME</t>
+  </si>
+  <si>
+    <t>F1580</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>F1581</t>
+  </si>
+  <si>
+    <t>DELETE_TIME</t>
+  </si>
+  <si>
+    <t>F1582</t>
+  </si>
+  <si>
+    <t>IS_OVERTIME</t>
+  </si>
+  <si>
+    <t>F1583</t>
+  </si>
+  <si>
+    <t>PUB_RANGE</t>
+  </si>
+  <si>
+    <t>F1584</t>
+  </si>
+  <si>
+    <t>MODEL_ID</t>
+  </si>
+  <si>
+    <t>F1585</t>
+  </si>
+  <si>
+    <t>SRC_CODE</t>
+  </si>
+  <si>
+    <t>F1586</t>
+  </si>
+  <si>
+    <t>DUTY_ORGAN_NAME</t>
+  </si>
+  <si>
+    <t>F1587</t>
+  </si>
+  <si>
+    <t>SUBDISTRICT_ID</t>
+  </si>
+  <si>
+    <t>F1588</t>
+  </si>
+  <si>
+    <t>SUB_TYPE</t>
+  </si>
+  <si>
+    <t>F1589</t>
+  </si>
+  <si>
+    <t>ATTENTION_DEGREE</t>
+  </si>
+  <si>
+    <t>F1590</t>
+  </si>
+  <si>
+    <t>DISTRICT_ID</t>
+  </si>
+  <si>
+    <t>F1591</t>
+  </si>
+  <si>
+    <t>REPORT_FROM</t>
+  </si>
+  <si>
+    <t>F1592</t>
+  </si>
+  <si>
+    <t>CONTENT_ID</t>
+  </si>
+  <si>
+    <t>F1594</t>
+  </si>
+  <si>
+    <t>FOREIGN_TYPE</t>
+  </si>
+  <si>
+    <t>F1595</t>
+  </si>
+  <si>
+    <t>SEARCH_CODE</t>
+  </si>
+  <si>
+    <t>F1596</t>
+  </si>
+  <si>
+    <t>RELATION_ID</t>
+  </si>
+  <si>
+    <t>F1597</t>
+  </si>
+  <si>
+    <t>SYNC_MODE</t>
+  </si>
+  <si>
+    <t>F1599</t>
+  </si>
+  <si>
+    <t>SQUOTA_ID</t>
+  </si>
+  <si>
+    <t>F1600</t>
+  </si>
+  <si>
+    <t>DUTY_USER_ID</t>
+  </si>
+  <si>
+    <t>F1601</t>
+  </si>
+  <si>
+    <t>DUTY_LEVEL</t>
+  </si>
+  <si>
+    <t>F1602</t>
+  </si>
+  <si>
+    <t>ORGAN_NAME</t>
+  </si>
+  <si>
+    <t>F1603</t>
+  </si>
+  <si>
+    <t>PARENT_ID</t>
+  </si>
+  <si>
+    <t>F1604</t>
+  </si>
+  <si>
+    <t>SYNC_TIME</t>
+  </si>
+  <si>
+    <t>F1605</t>
+  </si>
+  <si>
+    <t>REF_ID</t>
+  </si>
+  <si>
+    <t>F1606</t>
+  </si>
+  <si>
+    <t>TITLE</t>
+  </si>
+  <si>
+    <t>F1607</t>
+  </si>
+  <si>
+    <t>EVENT_ID</t>
+  </si>
+  <si>
+    <t>F1608</t>
+  </si>
+  <si>
+    <t>AREATYPE_ID</t>
+  </si>
+  <si>
+    <t>F1610</t>
   </si>
 </sst>
 </file>
@@ -717,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C53"/>
+  <dimension ref="A1:C348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45:C53"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5"/>
@@ -754,54 +2527,54 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>71</v>
+        <v>90</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>72</v>
+        <v>92</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>73</v>
+        <v>94</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>74</v>
+        <v>96</v>
       </c>
       <c r="C6">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>75</v>
+        <v>98</v>
       </c>
       <c r="C7">
         <v>5</v>
@@ -809,511 +2582,3757 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C8">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="C9">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>16</v>
+        <v>103</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>78</v>
+        <v>104</v>
       </c>
       <c r="C10">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>107</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="C12">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>111</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="C15">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="C16">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="C17">
-        <v>15</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>119</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>86</v>
+        <v>120</v>
       </c>
       <c r="C18">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>121</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="C19">
-        <v>17</v>
+        <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>88</v>
+        <v>124</v>
       </c>
       <c r="C20">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>126</v>
       </c>
       <c r="C21">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>127</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>90</v>
+        <v>128</v>
       </c>
       <c r="C22">
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>91</v>
+        <v>130</v>
       </c>
       <c r="C23">
-        <v>21</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>17</v>
+        <v>131</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="C24">
-        <v>22</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="C26">
         <v>5</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C26">
-        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>1</v>
+        <v>137</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>138</v>
       </c>
       <c r="C27">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>97</v>
+        <v>140</v>
       </c>
       <c r="C28">
-        <v>26</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>141</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
       <c r="C29">
-        <v>27</v>
+        <v>5</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C30">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>100</v>
+        <v>146</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>147</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>101</v>
+        <v>148</v>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>149</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>102</v>
+        <v>150</v>
       </c>
       <c r="C33">
-        <v>31</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>2</v>
+        <v>151</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="C34">
-        <v>32</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>153</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>154</v>
       </c>
       <c r="C35">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>43</v>
+        <v>155</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="C36">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>9</v>
+        <v>157</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>158</v>
       </c>
       <c r="C37">
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>159</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>160</v>
       </c>
       <c r="C38">
-        <v>36</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>23</v>
+        <v>161</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="C39">
-        <v>37</v>
+        <v>5</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="C40">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>165</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="C41">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>169</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
       <c r="C43">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
       <c r="C44">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>51</v>
+        <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C45">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>11</v>
+        <v>175</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>66</v>
+        <v>176</v>
       </c>
       <c r="C46">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>177</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
       <c r="C47">
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>3</v>
+        <v>179</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
       <c r="C48">
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1" t="s">
-        <v>8</v>
+      <c r="A49" t="s">
+        <v>181</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>69</v>
+        <v>182</v>
       </c>
       <c r="C49">
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>47</v>
+        <v>183</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="C50">
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1" t="s">
-        <v>70</v>
+      <c r="A51" t="s">
+        <v>185</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="C51">
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>105</v>
+        <v>187</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>52</v>
+        <v>188</v>
       </c>
       <c r="C52">
-        <v>50</v>
+        <v>5</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>106</v>
+        <v>189</v>
       </c>
       <c r="B53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" t="s">
+        <v>193</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>195</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C57">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" t="s">
+        <v>199</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C58">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" t="s">
+        <v>201</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C59">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" t="s">
+        <v>203</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C60">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" t="s">
+        <v>205</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C61">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" t="s">
+        <v>209</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C63">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" t="s">
+        <v>211</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" t="s">
+        <v>213</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" t="s">
+        <v>215</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" t="s">
+        <v>217</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" t="s">
+        <v>219</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C68">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" t="s">
+        <v>221</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C69">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" t="s">
+        <v>223</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C70">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" t="s">
+        <v>225</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C71">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" t="s">
+        <v>227</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C72">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" t="s">
+        <v>229</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C73">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" t="s">
+        <v>231</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C74">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" t="s">
+        <v>233</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="C75">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" t="s">
+        <v>235</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C76">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" t="s">
+        <v>237</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C77">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" t="s">
+        <v>239</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C78">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" t="s">
+        <v>241</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C79">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" t="s">
+        <v>243</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="C80">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" t="s">
+        <v>245</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="C81">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" t="s">
+        <v>247</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="C82">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" t="s">
+        <v>249</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="C83">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" t="s">
+        <v>251</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C84">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" t="s">
+        <v>253</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="C85">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" t="s">
+        <v>255</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" t="s">
+        <v>257</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="C87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" t="s">
+        <v>259</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C88">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" t="s">
+        <v>261</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C89">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" t="s">
+        <v>263</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C90">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" t="s">
+        <v>265</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" t="s">
+        <v>267</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="C92">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" t="s">
+        <v>269</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="C93">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="C94">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" t="s">
+        <v>273</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" t="s">
+        <v>275</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="C96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" t="s">
+        <v>277</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C97">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" t="s">
+        <v>279</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="C98">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" t="s">
+        <v>281</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="C99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" t="s">
+        <v>283</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="C100">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" t="s">
+        <v>285</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" t="s">
+        <v>287</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="C102">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" t="s">
+        <v>289</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="C103">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" t="s">
+        <v>291</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C104">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" t="s">
+        <v>293</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C105">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" t="s">
+        <v>295</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="C106">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" t="s">
+        <v>297</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C107">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" t="s">
+        <v>299</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C108">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" t="s">
+        <v>301</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="C109">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" t="s">
+        <v>303</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="C110">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="C111">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" t="s">
+        <v>307</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C112">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" t="s">
+        <v>309</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="C113">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" t="s">
+        <v>311</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="C114">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" t="s">
+        <v>313</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="C115">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" t="s">
+        <v>315</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="C116">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" t="s">
+        <v>317</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="C117">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" t="s">
+        <v>319</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="C118">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" t="s">
+        <v>321</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" t="s">
+        <v>323</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="C120">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" t="s">
+        <v>325</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C121">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" t="s">
+        <v>327</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C122">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" t="s">
+        <v>329</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C123">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" t="s">
+        <v>331</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="C124">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" t="s">
+        <v>333</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C125">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" t="s">
+        <v>335</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C126">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" t="s">
+        <v>337</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="C127">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" t="s">
+        <v>339</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C128">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" t="s">
+        <v>341</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C129">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" t="s">
+        <v>343</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="C130">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" t="s">
+        <v>345</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="C131">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" t="s">
+        <v>347</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C132">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" t="s">
+        <v>349</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C133">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" t="s">
+        <v>351</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="C134">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" t="s">
+        <v>353</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C135">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" t="s">
+        <v>355</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C136">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" t="s">
+        <v>357</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="C137">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" t="s">
+        <v>359</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C138">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" t="s">
+        <v>361</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C139">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" t="s">
+        <v>363</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C140">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" t="s">
+        <v>365</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>367</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C142">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>369</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C143">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
+        <v>371</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="C144">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>373</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C145">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>375</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C146">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>377</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C147">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>379</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C148">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>381</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C149">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>383</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C150">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>385</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="C151">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" t="s">
+        <v>387</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="C152">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" t="s">
+        <v>389</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="C153">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" t="s">
+        <v>391</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C154">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" t="s">
+        <v>393</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C155">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" t="s">
+        <v>395</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" t="s">
+        <v>397</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C157">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" t="s">
+        <v>399</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C158">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" t="s">
+        <v>401</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" t="s">
+        <v>403</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C160">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" t="s">
+        <v>405</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" t="s">
+        <v>407</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C162">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" t="s">
+        <v>409</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="C163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" t="s">
+        <v>411</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C164">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" t="s">
+        <v>413</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C165">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" t="s">
+        <v>415</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="C166">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" t="s">
+        <v>417</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C167">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" t="s">
+        <v>419</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" t="s">
+        <v>421</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C169">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" t="s">
+        <v>423</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C170">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" t="s">
+        <v>425</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="C171">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" t="s">
+        <v>427</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C172">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" t="s">
+        <v>429</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C173">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" t="s">
+        <v>431</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C174">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" t="s">
+        <v>433</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="C175">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" t="s">
+        <v>435</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C176">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3">
+      <c r="A177" t="s">
+        <v>437</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="C177">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" t="s">
+        <v>439</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>440</v>
+      </c>
+      <c r="C178">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3">
+      <c r="A179" t="s">
+        <v>441</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C179">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" t="s">
+        <v>443</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C180">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" t="s">
+        <v>445</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C181">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" t="s">
+        <v>447</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C182">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" t="s">
+        <v>449</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="C183">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" t="s">
+        <v>451</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>452</v>
+      </c>
+      <c r="C184">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3">
+      <c r="A185" t="s">
+        <v>453</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="C185">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3">
+      <c r="A186" t="s">
+        <v>455</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="C186">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3">
+      <c r="A187" t="s">
+        <v>457</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C187">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3">
+      <c r="A188" t="s">
+        <v>459</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="C188">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3">
+      <c r="A189" t="s">
+        <v>461</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C189">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3">
+      <c r="A190" t="s">
+        <v>463</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C190">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3">
+      <c r="A191" t="s">
+        <v>465</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C191">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3">
+      <c r="A192" t="s">
+        <v>467</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C192">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3">
+      <c r="A193" t="s">
+        <v>469</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="C193">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3">
+      <c r="A194" t="s">
+        <v>471</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="C194">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3">
+      <c r="A195" t="s">
+        <v>473</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="C195">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3">
+      <c r="A196" t="s">
+        <v>475</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>476</v>
+      </c>
+      <c r="C196">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3">
+      <c r="A197" t="s">
+        <v>477</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C197">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3">
+      <c r="A198" t="s">
+        <v>479</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="C198">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3">
+      <c r="A199" t="s">
+        <v>481</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="C199">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3">
+      <c r="A200" t="s">
+        <v>483</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>484</v>
+      </c>
+      <c r="C200">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3">
+      <c r="A201" t="s">
+        <v>485</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C201">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3">
+      <c r="A202" t="s">
+        <v>487</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="C202">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" t="s">
+        <v>489</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C203">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" t="s">
+        <v>491</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>492</v>
+      </c>
+      <c r="C204">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="A205" t="s">
+        <v>493</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C205">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3">
+      <c r="A206" t="s">
+        <v>495</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C206">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="A207" t="s">
+        <v>497</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C207">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="A208" t="s">
+        <v>499</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C208">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3">
+      <c r="A209" t="s">
+        <v>501</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C209">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3">
+      <c r="A210" t="s">
+        <v>503</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C210">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3">
+      <c r="A211" t="s">
+        <v>505</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C211">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3">
+      <c r="A212" t="s">
+        <v>507</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C212">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3">
+      <c r="A213" t="s">
+        <v>509</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>510</v>
+      </c>
+      <c r="C213">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3">
+      <c r="A214" t="s">
+        <v>511</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="C214">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3">
+      <c r="A215" t="s">
+        <v>513</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="C215">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3">
+      <c r="A216" t="s">
+        <v>515</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C216">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3">
+      <c r="A217" t="s">
+        <v>517</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C217">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3">
+      <c r="A218" t="s">
+        <v>519</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C218">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3">
+      <c r="A219" t="s">
+        <v>521</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C219">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3">
+      <c r="A220" t="s">
+        <v>523</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C220">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3">
+      <c r="A221" t="s">
+        <v>525</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C221">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3">
+      <c r="A222" t="s">
+        <v>527</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="C222">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3">
+      <c r="A223" t="s">
+        <v>529</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="C223">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3">
+      <c r="A224" t="s">
+        <v>531</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C224">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3">
+      <c r="A225" t="s">
+        <v>533</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C225">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3">
+      <c r="A226" t="s">
+        <v>535</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C226">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3">
+      <c r="A227" t="s">
+        <v>537</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C227">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3">
+      <c r="A228" t="s">
+        <v>539</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C228">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3">
+      <c r="A229" t="s">
+        <v>541</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>542</v>
+      </c>
+      <c r="C229">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3">
+      <c r="A230" t="s">
+        <v>543</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>544</v>
+      </c>
+      <c r="C230">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3">
+      <c r="A231" t="s">
+        <v>545</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>546</v>
+      </c>
+      <c r="C231">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3">
+      <c r="A232" t="s">
+        <v>547</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C232">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3">
+      <c r="A233" t="s">
+        <v>549</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>550</v>
+      </c>
+      <c r="C233">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3">
+      <c r="A234" t="s">
+        <v>551</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>552</v>
+      </c>
+      <c r="C234">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3">
+      <c r="A235" t="s">
+        <v>553</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C235">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3">
+      <c r="A236" t="s">
+        <v>555</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="C236">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3">
+      <c r="A237" t="s">
+        <v>557</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="C237">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3">
+      <c r="A238" t="s">
+        <v>559</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="C238">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3">
+      <c r="A239" t="s">
+        <v>561</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="C239">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3">
+      <c r="A240" t="s">
+        <v>563</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C240">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3">
+      <c r="A241" t="s">
+        <v>565</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="C241">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3">
+      <c r="A242" t="s">
+        <v>567</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C242">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3">
+      <c r="A243" t="s">
+        <v>569</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="C243">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3">
+      <c r="A244" t="s">
+        <v>571</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C244">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3">
+      <c r="A245" t="s">
+        <v>573</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C245">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3">
+      <c r="A246" t="s">
+        <v>575</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="C246">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3">
+      <c r="A247" t="s">
+        <v>577</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="C247">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3">
+      <c r="A248" t="s">
+        <v>579</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C248">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3">
+      <c r="A249" t="s">
+        <v>581</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C249">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3">
+      <c r="A250" t="s">
+        <v>583</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C250">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3">
+      <c r="A251" t="s">
+        <v>585</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C251">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3">
+      <c r="A252" t="s">
+        <v>587</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="C252">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3">
+      <c r="A253" t="s">
+        <v>589</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>590</v>
+      </c>
+      <c r="C253">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3">
+      <c r="A254" t="s">
+        <v>591</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>592</v>
+      </c>
+      <c r="C254">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3">
+      <c r="A255" t="s">
+        <v>593</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>594</v>
+      </c>
+      <c r="C255">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3">
+      <c r="A256" t="s">
+        <v>595</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="C256">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3">
+      <c r="A257" t="s">
+        <v>597</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C257">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3">
+      <c r="A258" t="s">
+        <v>599</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>600</v>
+      </c>
+      <c r="C258">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3">
+      <c r="A259" t="s">
+        <v>601</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C259">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3">
+      <c r="A260" t="s">
+        <v>603</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C260">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3">
+      <c r="A261" t="s">
+        <v>605</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C261">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3">
+      <c r="A262" t="s">
+        <v>607</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="C262">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3">
+      <c r="A263" t="s">
+        <v>609</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="C263">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3">
+      <c r="A264" t="s">
+        <v>611</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C264">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3">
+      <c r="A265" t="s">
+        <v>613</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="C265">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3">
+      <c r="A266" t="s">
+        <v>615</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="C266">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3">
+      <c r="A267" t="s">
+        <v>617</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="C267">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3">
+      <c r="A268" t="s">
+        <v>619</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="C268">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3">
+      <c r="A269" t="s">
+        <v>621</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C269">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3">
+      <c r="A270" t="s">
+        <v>623</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C270">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3">
+      <c r="A271" t="s">
+        <v>625</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C271">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3">
+      <c r="A272" t="s">
+        <v>627</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="C272">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3">
+      <c r="A273" t="s">
+        <v>629</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C273">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3">
+      <c r="A274" t="s">
+        <v>631</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C274">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3">
+      <c r="A275" t="s">
+        <v>633</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C275">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3">
+      <c r="A276" t="s">
+        <v>635</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="C276">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3">
+      <c r="A277" t="s">
+        <v>637</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>638</v>
+      </c>
+      <c r="C277">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3">
+      <c r="A278" t="s">
+        <v>639</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="C278">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3">
+      <c r="A279" t="s">
+        <v>641</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C279">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3">
+      <c r="A280" t="s">
+        <v>643</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C280">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3">
+      <c r="A281" t="s">
+        <v>645</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C281">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3">
+      <c r="A282" t="s">
+        <v>647</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>648</v>
+      </c>
+      <c r="C282">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3">
+      <c r="A283" t="s">
+        <v>649</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="C283">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3">
+      <c r="A284" t="s">
+        <v>651</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>652</v>
+      </c>
+      <c r="C284">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3">
+      <c r="A285" t="s">
+        <v>653</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C285">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3">
+      <c r="A286" t="s">
+        <v>655</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C286">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3">
+      <c r="A287" t="s">
+        <v>657</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C287">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3">
+      <c r="A288" t="s">
+        <v>659</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>660</v>
+      </c>
+      <c r="C288">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3">
+      <c r="A289" t="s">
+        <v>661</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C289">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3">
+      <c r="A290" t="s">
+        <v>663</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>664</v>
+      </c>
+      <c r="C290">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3">
+      <c r="A291" t="s">
+        <v>665</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>666</v>
+      </c>
+      <c r="C291">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3">
+      <c r="A292" t="s">
+        <v>667</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="C292">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3">
+      <c r="A293" t="s">
+        <v>669</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C293">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3">
+      <c r="A294" t="s">
+        <v>671</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C294">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3">
+      <c r="A295" t="s">
+        <v>673</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>674</v>
+      </c>
+      <c r="C295">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3">
+      <c r="A296" t="s">
+        <v>675</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>676</v>
+      </c>
+      <c r="C296">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3">
+      <c r="A297" t="s">
+        <v>677</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>678</v>
+      </c>
+      <c r="C297">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3">
+      <c r="A298" t="s">
+        <v>679</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>680</v>
+      </c>
+      <c r="C298">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3">
+      <c r="A299" t="s">
+        <v>681</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C299">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3">
+      <c r="A300" t="s">
+        <v>683</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C300">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3">
+      <c r="A301" t="s">
+        <v>685</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>686</v>
+      </c>
+      <c r="C301">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3">
+      <c r="A302" t="s">
+        <v>687</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>688</v>
+      </c>
+      <c r="C302">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3">
+      <c r="A303" t="s">
+        <v>689</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C303">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3">
+      <c r="A304" t="s">
+        <v>691</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>692</v>
+      </c>
+      <c r="C304">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3">
+      <c r="A305" t="s">
+        <v>693</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>694</v>
+      </c>
+      <c r="C305">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3">
+      <c r="A306" t="s">
+        <v>695</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C306">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3">
+      <c r="A307" t="s">
+        <v>26</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C307">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3">
+      <c r="A308" t="s">
+        <v>24</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C308">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3">
+      <c r="A309" t="s">
+        <v>45</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C309">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3">
+      <c r="A310" t="s">
+        <v>33</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C310">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3">
+      <c r="A311" t="s">
+        <v>13</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C311">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3">
+      <c r="A312" t="s">
+        <v>29</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C312">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>14</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C313">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>16</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C314">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3">
+      <c r="A315" t="s">
+        <v>15</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C315">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3">
+      <c r="A316" t="s">
+        <v>28</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C316">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3">
+      <c r="A317" t="s">
+        <v>22</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C317">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3">
+      <c r="A318" t="s">
+        <v>10</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C318">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3">
+      <c r="A319" t="s">
+        <v>18</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C319">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3">
+      <c r="A320" t="s">
+        <v>19</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C320">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3">
+      <c r="A321" t="s">
+        <v>44</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C321">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3">
+      <c r="A322" t="s">
+        <v>21</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C322">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3">
+      <c r="A323" t="s">
+        <v>20</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C323">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3">
+      <c r="A324" t="s">
+        <v>30</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C324">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3">
+      <c r="A325" t="s">
+        <v>27</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C325">
         <v>53</v>
       </c>
-      <c r="C53">
+    </row>
+    <row r="326" spans="1:3">
+      <c r="A326" t="s">
+        <v>31</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C326">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3">
+      <c r="A327" t="s">
+        <v>0</v>
+      </c>
+      <c r="B327" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C327">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3">
+      <c r="A328" t="s">
+        <v>17</v>
+      </c>
+      <c r="B328" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C328">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3">
+      <c r="A329" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C329">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3">
+      <c r="A330" t="s">
+        <v>1</v>
+      </c>
+      <c r="B330" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C330">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3">
+      <c r="A331" t="s">
+        <v>32</v>
+      </c>
+      <c r="B331" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C331">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3">
+      <c r="A332" t="s">
+        <v>46</v>
+      </c>
+      <c r="B332" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C332">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3">
+      <c r="A333" t="s">
+        <v>43</v>
+      </c>
+      <c r="B333" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C333">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3">
+      <c r="A334" t="s">
+        <v>4</v>
+      </c>
+      <c r="B334" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C334">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3">
+      <c r="A335" t="s">
+        <v>34</v>
+      </c>
+      <c r="B335" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C335">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3">
+      <c r="A336" t="s">
+        <v>35</v>
+      </c>
+      <c r="B336" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C336">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3">
+      <c r="A337" t="s">
+        <v>2</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C337">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3">
+      <c r="A338" t="s">
+        <v>36</v>
+      </c>
+      <c r="B338" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C338">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3">
+      <c r="A339" t="s">
+        <v>9</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C339">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3">
+      <c r="A340" t="s">
+        <v>23</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C340">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3">
+      <c r="A341" t="s">
+        <v>37</v>
+      </c>
+      <c r="B341" s="1" t="s">
         <v>51</v>
       </c>
+      <c r="C341">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3">
+      <c r="A342" t="s">
+        <v>6</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C342">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3">
+      <c r="A343" t="s">
+        <v>25</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C343">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3">
+      <c r="A344" t="s">
+        <v>7</v>
+      </c>
+      <c r="B344" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C344">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3">
+      <c r="A345" t="s">
+        <v>11</v>
+      </c>
+      <c r="B345" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C345">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3">
+      <c r="A346" t="s">
+        <v>12</v>
+      </c>
+      <c r="B346" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C346">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3">
+      <c r="A347" t="s">
+        <v>3</v>
+      </c>
+      <c r="B347" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C347">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3">
+      <c r="A348" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B348" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C348">
+        <v>461</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A2:G348" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
